--- a/medicine/Enfance/L'Arbre_généreux/L'Arbre_généreux.xlsx
+++ b/medicine/Enfance/L'Arbre_généreux/L'Arbre_généreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Arbre_g%C3%A9n%C3%A9reux</t>
+          <t>L'Arbre_généreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arbre généreux ou L'Arbre au grand cœur (titre original en anglais : The Giving Tree) est un livre pour enfants écrit et illustré par Shel Silverstein. Publié initialement en 1964 par Harper &amp; Row (actuel HarperCollins), il est traduit dans plus de 30 langues et langages.
 Le livre aborde l'amitié inconditionnelle qui lie un arbre à un jeune garçon. Cette amitié demeure tandis que le garçon passe par toutes les étapes de la vie et a des besoins différents, besoins que l'arbre essaie de son mieux de combler.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Arbre_g%C3%A9n%C3%A9reux</t>
+          <t>L'Arbre_généreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">The Giving Tree  (ISBN 978-0-06-025665-4)
 L'arbre généreux  (ISBN 978-2211094153)
